--- a/Python/Operations on Data/02 Pandas/text_data_file.xlsx
+++ b/Python/Operations on Data/02 Pandas/text_data_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AI-ML-Algorithms-for-Business-Applications\Operations on Data\02 Pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Programming-for-Analytics--MPBA-G507-\Python\Operations on Data\02 Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009DD5F-84F8-4D19-A6B8-247A38B0AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932AEB54-CD7A-463F-A30E-45EC087CED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
